--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E58429D-3E23-48EE-8FDF-5D12A6E41D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F00B0-955B-4D80-BE0B-AFC68A2E00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4054" yWindow="471" windowWidth="23443" windowHeight="14058" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58245" yWindow="3465" windowWidth="14340" windowHeight="16635" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QUINA!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302:XFD302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6464,19 +6464,699 @@
         <v>6793</v>
       </c>
       <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>24</v>
+      </c>
+      <c r="D302">
+        <v>30</v>
+      </c>
+      <c r="E302">
+        <v>62</v>
+      </c>
+      <c r="F302">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>6794</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>17</v>
+      </c>
+      <c r="D303">
+        <v>37</v>
+      </c>
+      <c r="E303">
+        <v>62</v>
+      </c>
+      <c r="F303">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>6795</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304">
+        <v>39</v>
+      </c>
+      <c r="F304">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>6796</v>
+      </c>
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305">
+        <v>17</v>
+      </c>
+      <c r="D305">
+        <v>18</v>
+      </c>
+      <c r="E305">
+        <v>20</v>
+      </c>
+      <c r="F305">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>6797</v>
+      </c>
+      <c r="B306">
+        <v>11</v>
+      </c>
+      <c r="C306">
+        <v>21</v>
+      </c>
+      <c r="D306">
+        <v>42</v>
+      </c>
+      <c r="E306">
+        <v>50</v>
+      </c>
+      <c r="F306">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>6798</v>
+      </c>
+      <c r="B307">
+        <v>4</v>
+      </c>
+      <c r="C307">
+        <v>19</v>
+      </c>
+      <c r="D307">
+        <v>32</v>
+      </c>
+      <c r="E307">
+        <v>37</v>
+      </c>
+      <c r="F307">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>6799</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>11</v>
+      </c>
+      <c r="E308">
+        <v>55</v>
+      </c>
+      <c r="F308">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>6800</v>
+      </c>
+      <c r="B309">
+        <v>14</v>
+      </c>
+      <c r="C309">
+        <v>16</v>
+      </c>
+      <c r="D309">
+        <v>18</v>
+      </c>
+      <c r="E309">
         <v>29</v>
       </c>
-      <c r="C302">
-        <v>30</v>
-      </c>
-      <c r="D302">
+      <c r="F309">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>6801</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="C310">
+        <v>10</v>
+      </c>
+      <c r="D310">
+        <v>31</v>
+      </c>
+      <c r="E310">
+        <v>75</v>
+      </c>
+      <c r="F310">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>6802</v>
+      </c>
+      <c r="B311">
+        <v>27</v>
+      </c>
+      <c r="C311">
+        <v>33</v>
+      </c>
+      <c r="D311">
+        <v>43</v>
+      </c>
+      <c r="E311">
+        <v>65</v>
+      </c>
+      <c r="F311">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>6803</v>
+      </c>
+      <c r="B312">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>47</v>
+      </c>
+      <c r="D312">
+        <v>50</v>
+      </c>
+      <c r="E312">
+        <v>54</v>
+      </c>
+      <c r="F312">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>6804</v>
+      </c>
+      <c r="B313">
+        <v>6</v>
+      </c>
+      <c r="C313">
+        <v>16</v>
+      </c>
+      <c r="D313">
+        <v>18</v>
+      </c>
+      <c r="E313">
+        <v>26</v>
+      </c>
+      <c r="F313">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>6805</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>3</v>
+      </c>
+      <c r="D314">
+        <v>14</v>
+      </c>
+      <c r="E314">
+        <v>19</v>
+      </c>
+      <c r="F314">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>6806</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>17</v>
+      </c>
+      <c r="D315">
+        <v>27</v>
+      </c>
+      <c r="E315">
+        <v>55</v>
+      </c>
+      <c r="F315">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>6807</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>19</v>
+      </c>
+      <c r="D316">
+        <v>21</v>
+      </c>
+      <c r="E316">
+        <v>37</v>
+      </c>
+      <c r="F316">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A317">
+        <v>6808</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>16</v>
+      </c>
+      <c r="D317">
         <v>38</v>
       </c>
-      <c r="E302">
+      <c r="E317">
+        <v>48</v>
+      </c>
+      <c r="F317">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>6809</v>
+      </c>
+      <c r="B318">
+        <v>7</v>
+      </c>
+      <c r="C318">
+        <v>8</v>
+      </c>
+      <c r="D318">
+        <v>34</v>
+      </c>
+      <c r="E318">
+        <v>61</v>
+      </c>
+      <c r="F318">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>6810</v>
+      </c>
+      <c r="B319">
+        <v>10</v>
+      </c>
+      <c r="C319">
+        <v>17</v>
+      </c>
+      <c r="D319">
+        <v>33</v>
+      </c>
+      <c r="E319">
+        <v>49</v>
+      </c>
+      <c r="F319">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>6811</v>
+      </c>
+      <c r="B320">
+        <v>5</v>
+      </c>
+      <c r="C320">
+        <v>12</v>
+      </c>
+      <c r="D320">
+        <v>21</v>
+      </c>
+      <c r="E320">
+        <v>50</v>
+      </c>
+      <c r="F320">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>6812</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>14</v>
+      </c>
+      <c r="D321">
+        <v>38</v>
+      </c>
+      <c r="E321">
         <v>39</v>
       </c>
-      <c r="F302">
-        <v>73</v>
+      <c r="F321">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>6813</v>
+      </c>
+      <c r="B322">
+        <v>12</v>
+      </c>
+      <c r="C322">
+        <v>36</v>
+      </c>
+      <c r="D322">
+        <v>38</v>
+      </c>
+      <c r="E322">
+        <v>42</v>
+      </c>
+      <c r="F322">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>6814</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+      <c r="C323">
+        <v>14</v>
+      </c>
+      <c r="D323">
+        <v>26</v>
+      </c>
+      <c r="E323">
+        <v>66</v>
+      </c>
+      <c r="F323">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>6815</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>27</v>
+      </c>
+      <c r="D324">
+        <v>50</v>
+      </c>
+      <c r="E324">
+        <v>71</v>
+      </c>
+      <c r="F324">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>6816</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>13</v>
+      </c>
+      <c r="D325">
+        <v>52</v>
+      </c>
+      <c r="E325">
+        <v>60</v>
+      </c>
+      <c r="F325">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>6817</v>
+      </c>
+      <c r="B326">
+        <v>6</v>
+      </c>
+      <c r="C326">
+        <v>13</v>
+      </c>
+      <c r="D326">
+        <v>36</v>
+      </c>
+      <c r="E326">
+        <v>53</v>
+      </c>
+      <c r="F326">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A327">
+        <v>6818</v>
+      </c>
+      <c r="B327">
+        <v>6</v>
+      </c>
+      <c r="C327">
+        <v>38</v>
+      </c>
+      <c r="D327">
+        <v>43</v>
+      </c>
+      <c r="E327">
+        <v>52</v>
+      </c>
+      <c r="F327">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A328">
+        <v>6819</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>11</v>
+      </c>
+      <c r="D328">
+        <v>32</v>
+      </c>
+      <c r="E328">
+        <v>37</v>
+      </c>
+      <c r="F328">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A329">
+        <v>6820</v>
+      </c>
+      <c r="B329">
+        <v>15</v>
+      </c>
+      <c r="C329">
+        <v>41</v>
+      </c>
+      <c r="D329">
+        <v>59</v>
+      </c>
+      <c r="E329">
+        <v>72</v>
+      </c>
+      <c r="F329">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A330">
+        <v>6821</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>27</v>
+      </c>
+      <c r="E330">
+        <v>62</v>
+      </c>
+      <c r="F330">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A331">
+        <v>6822</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>32</v>
+      </c>
+      <c r="D331">
+        <v>49</v>
+      </c>
+      <c r="E331">
+        <v>50</v>
+      </c>
+      <c r="F331">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A332">
+        <v>6823</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>12</v>
+      </c>
+      <c r="D332">
+        <v>29</v>
+      </c>
+      <c r="E332">
+        <v>70</v>
+      </c>
+      <c r="F332">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A333">
+        <v>6824</v>
+      </c>
+      <c r="B333">
+        <v>4</v>
+      </c>
+      <c r="C333">
+        <v>11</v>
+      </c>
+      <c r="D333">
+        <v>12</v>
+      </c>
+      <c r="E333">
+        <v>29</v>
+      </c>
+      <c r="F333">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A334">
+        <v>6825</v>
+      </c>
+      <c r="B334">
+        <v>7</v>
+      </c>
+      <c r="C334">
+        <v>9</v>
+      </c>
+      <c r="D334">
+        <v>10</v>
+      </c>
+      <c r="E334">
+        <v>34</v>
+      </c>
+      <c r="F334">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A335">
+        <v>6826</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>52</v>
+      </c>
+      <c r="D335">
+        <v>53</v>
+      </c>
+      <c r="E335">
+        <v>66</v>
+      </c>
+      <c r="F335">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A336">
+        <v>6827</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>52</v>
+      </c>
+      <c r="D336">
+        <v>53</v>
+      </c>
+      <c r="E336">
+        <v>66</v>
+      </c>
+      <c r="F336">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6485,15 +7165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -6501,6 +7172,15 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6672,20 +7352,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F00B0-955B-4D80-BE0B-AFC68A2E00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0773C7-19FC-467B-9526-6C072D5718C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58245" yWindow="3465" windowWidth="14340" windowHeight="16635" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="70005" yWindow="465" windowWidth="25635" windowHeight="12795" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QUINA!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,11 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F336"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:XFD302"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337:F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7159,31 +7161,112 @@
         <v>78</v>
       </c>
     </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A337" s="2">
+        <v>6828</v>
+      </c>
+      <c r="B337" s="3">
+        <v>53</v>
+      </c>
+      <c r="C337" s="3">
+        <v>54</v>
+      </c>
+      <c r="D337" s="3">
+        <v>62</v>
+      </c>
+      <c r="E337" s="3">
+        <v>66</v>
+      </c>
+      <c r="F337" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A338" s="2">
+        <v>6829</v>
+      </c>
+      <c r="B338" s="3">
+        <v>42</v>
+      </c>
+      <c r="C338" s="3">
+        <v>52</v>
+      </c>
+      <c r="D338" s="3">
+        <v>57</v>
+      </c>
+      <c r="E338" s="3">
+        <v>58</v>
+      </c>
+      <c r="F338" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A339" s="2">
+        <v>6830</v>
+      </c>
+      <c r="B339" s="3">
+        <v>27</v>
+      </c>
+      <c r="C339" s="3">
+        <v>28</v>
+      </c>
+      <c r="D339" s="3">
+        <v>30</v>
+      </c>
+      <c r="E339" s="3">
+        <v>34</v>
+      </c>
+      <c r="F339" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A340" s="2">
+        <v>6831</v>
+      </c>
+      <c r="B340" s="3">
+        <v>21</v>
+      </c>
+      <c r="C340" s="3">
+        <v>28</v>
+      </c>
+      <c r="D340" s="3">
+        <v>66</v>
+      </c>
+      <c r="E340" s="3">
+        <v>68</v>
+      </c>
+      <c r="F340" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A341" s="2">
+        <v>6832</v>
+      </c>
+      <c r="B341" s="3">
+        <v>13</v>
+      </c>
+      <c r="C341" s="3">
+        <v>33</v>
+      </c>
+      <c r="D341" s="3">
+        <v>46</v>
+      </c>
+      <c r="E341" s="3">
+        <v>71</v>
+      </c>
+      <c r="F341" s="3">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7351,26 +7434,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0BA4B3-539F-4533-9D8B-E25FB604EF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7388,4 +7471,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0773C7-19FC-467B-9526-6C072D5718C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9893785-0F01-4AED-9AF7-038E4D14744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70005" yWindow="465" windowWidth="25635" windowHeight="12795" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="77490" yWindow="915" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F341"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337:F341"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="B354" sqref="B354:F374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7162,103 +7162,763 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A337" s="2">
+      <c r="A337">
         <v>6828</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337">
         <v>53</v>
       </c>
-      <c r="C337" s="3">
+      <c r="C337">
         <v>54</v>
       </c>
-      <c r="D337" s="3">
+      <c r="D337">
         <v>62</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337">
         <v>66</v>
       </c>
-      <c r="F337" s="3">
+      <c r="F337">
         <v>77</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A338" s="2">
+      <c r="A338">
         <v>6829</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338">
         <v>42</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338">
         <v>52</v>
       </c>
-      <c r="D338" s="3">
+      <c r="D338">
         <v>57</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338">
         <v>58</v>
       </c>
-      <c r="F338" s="3">
+      <c r="F338">
         <v>66</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A339" s="2">
+      <c r="A339">
         <v>6830</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339">
         <v>27</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C339">
         <v>28</v>
       </c>
-      <c r="D339" s="3">
+      <c r="D339">
         <v>30</v>
       </c>
-      <c r="E339" s="3">
+      <c r="E339">
         <v>34</v>
       </c>
-      <c r="F339" s="3">
+      <c r="F339">
         <v>76</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A340" s="2">
+      <c r="A340">
         <v>6831</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340">
         <v>21</v>
       </c>
-      <c r="C340" s="3">
+      <c r="C340">
         <v>28</v>
       </c>
-      <c r="D340" s="3">
+      <c r="D340">
         <v>66</v>
       </c>
-      <c r="E340" s="3">
+      <c r="E340">
         <v>68</v>
       </c>
-      <c r="F340" s="3">
+      <c r="F340">
         <v>79</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A341" s="2">
+      <c r="A341">
         <v>6832</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341">
         <v>13</v>
       </c>
-      <c r="C341" s="3">
+      <c r="C341">
         <v>33</v>
       </c>
-      <c r="D341" s="3">
+      <c r="D341">
         <v>46</v>
       </c>
-      <c r="E341" s="3">
+      <c r="E341">
         <v>71</v>
       </c>
-      <c r="F341" s="3">
+      <c r="F341">
         <v>80</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A342">
+        <v>6833</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>7</v>
+      </c>
+      <c r="D342">
+        <v>9</v>
+      </c>
+      <c r="E342">
+        <v>22</v>
+      </c>
+      <c r="F342">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A343">
+        <v>6834</v>
+      </c>
+      <c r="B343">
+        <v>11</v>
+      </c>
+      <c r="C343">
+        <v>41</v>
+      </c>
+      <c r="D343">
+        <v>51</v>
+      </c>
+      <c r="E343">
+        <v>78</v>
+      </c>
+      <c r="F343">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A344">
+        <v>6835</v>
+      </c>
+      <c r="B344">
+        <v>4</v>
+      </c>
+      <c r="C344">
+        <v>13</v>
+      </c>
+      <c r="D344">
+        <v>30</v>
+      </c>
+      <c r="E344">
+        <v>49</v>
+      </c>
+      <c r="F344">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A345">
+        <v>6836</v>
+      </c>
+      <c r="B345">
+        <v>5</v>
+      </c>
+      <c r="C345">
+        <v>16</v>
+      </c>
+      <c r="D345">
+        <v>29</v>
+      </c>
+      <c r="E345">
+        <v>33</v>
+      </c>
+      <c r="F345">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A346">
+        <v>6837</v>
+      </c>
+      <c r="B346">
+        <v>13</v>
+      </c>
+      <c r="C346">
+        <v>25</v>
+      </c>
+      <c r="D346">
+        <v>57</v>
+      </c>
+      <c r="E346">
+        <v>64</v>
+      </c>
+      <c r="F346">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A347">
+        <v>6838</v>
+      </c>
+      <c r="B347">
+        <v>31</v>
+      </c>
+      <c r="C347">
+        <v>33</v>
+      </c>
+      <c r="D347">
+        <v>50</v>
+      </c>
+      <c r="E347">
+        <v>70</v>
+      </c>
+      <c r="F347">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A348">
+        <v>6839</v>
+      </c>
+      <c r="B348">
+        <v>11</v>
+      </c>
+      <c r="C348">
+        <v>26</v>
+      </c>
+      <c r="D348">
+        <v>28</v>
+      </c>
+      <c r="E348">
+        <v>44</v>
+      </c>
+      <c r="F348">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A349">
+        <v>6840</v>
+      </c>
+      <c r="B349">
+        <v>26</v>
+      </c>
+      <c r="C349">
+        <v>36</v>
+      </c>
+      <c r="D349">
+        <v>43</v>
+      </c>
+      <c r="E349">
+        <v>46</v>
+      </c>
+      <c r="F349">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A350">
+        <v>6841</v>
+      </c>
+      <c r="B350">
+        <v>12</v>
+      </c>
+      <c r="C350">
+        <v>25</v>
+      </c>
+      <c r="D350">
+        <v>33</v>
+      </c>
+      <c r="E350">
+        <v>42</v>
+      </c>
+      <c r="F350">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A351">
+        <v>6842</v>
+      </c>
+      <c r="B351">
+        <v>12</v>
+      </c>
+      <c r="C351">
+        <v>25</v>
+      </c>
+      <c r="D351">
+        <v>33</v>
+      </c>
+      <c r="E351">
+        <v>41</v>
+      </c>
+      <c r="F351">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A352">
+        <v>6843</v>
+      </c>
+      <c r="B352">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>14</v>
+      </c>
+      <c r="D352">
+        <v>45</v>
+      </c>
+      <c r="E352">
+        <v>71</v>
+      </c>
+      <c r="F352">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A353">
+        <v>6844</v>
+      </c>
+      <c r="B353">
+        <v>5</v>
+      </c>
+      <c r="C353">
+        <v>9</v>
+      </c>
+      <c r="D353">
+        <v>11</v>
+      </c>
+      <c r="E353">
+        <v>52</v>
+      </c>
+      <c r="F353">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A354" s="2">
+        <v>6845</v>
+      </c>
+      <c r="B354" s="3">
+        <v>30</v>
+      </c>
+      <c r="C354" s="3">
+        <v>45</v>
+      </c>
+      <c r="D354" s="3">
+        <v>56</v>
+      </c>
+      <c r="E354" s="3">
+        <v>57</v>
+      </c>
+      <c r="F354" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A355" s="2">
+        <v>6846</v>
+      </c>
+      <c r="B355" s="3">
+        <v>4</v>
+      </c>
+      <c r="C355" s="3">
+        <v>49</v>
+      </c>
+      <c r="D355" s="3">
+        <v>51</v>
+      </c>
+      <c r="E355" s="3">
+        <v>57</v>
+      </c>
+      <c r="F355" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A356" s="2">
+        <v>6847</v>
+      </c>
+      <c r="B356" s="3">
+        <v>17</v>
+      </c>
+      <c r="C356" s="3">
+        <v>18</v>
+      </c>
+      <c r="D356" s="3">
+        <v>27</v>
+      </c>
+      <c r="E356" s="3">
+        <v>66</v>
+      </c>
+      <c r="F356" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A357" s="2">
+        <v>6848</v>
+      </c>
+      <c r="B357" s="3">
+        <v>31</v>
+      </c>
+      <c r="C357" s="3">
+        <v>32</v>
+      </c>
+      <c r="D357" s="3">
+        <v>34</v>
+      </c>
+      <c r="E357" s="3">
+        <v>45</v>
+      </c>
+      <c r="F357" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A358" s="2">
+        <v>6849</v>
+      </c>
+      <c r="B358" s="3">
+        <v>13</v>
+      </c>
+      <c r="C358" s="3">
+        <v>22</v>
+      </c>
+      <c r="D358" s="3">
+        <v>23</v>
+      </c>
+      <c r="E358" s="3">
+        <v>30</v>
+      </c>
+      <c r="F358" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A359" s="2">
+        <v>6850</v>
+      </c>
+      <c r="B359" s="3">
+        <v>34</v>
+      </c>
+      <c r="C359" s="3">
+        <v>55</v>
+      </c>
+      <c r="D359" s="3">
+        <v>61</v>
+      </c>
+      <c r="E359" s="3">
+        <v>71</v>
+      </c>
+      <c r="F359" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A360" s="2">
+        <v>6851</v>
+      </c>
+      <c r="B360" s="3">
+        <v>13</v>
+      </c>
+      <c r="C360" s="3">
+        <v>18</v>
+      </c>
+      <c r="D360" s="3">
+        <v>32</v>
+      </c>
+      <c r="E360" s="3">
+        <v>42</v>
+      </c>
+      <c r="F360" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A361" s="2">
+        <v>6852</v>
+      </c>
+      <c r="B361" s="3">
+        <v>24</v>
+      </c>
+      <c r="C361" s="3">
+        <v>46</v>
+      </c>
+      <c r="D361" s="3">
+        <v>50</v>
+      </c>
+      <c r="E361" s="3">
+        <v>62</v>
+      </c>
+      <c r="F361" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A362" s="2">
+        <v>6853</v>
+      </c>
+      <c r="B362" s="3">
+        <v>7</v>
+      </c>
+      <c r="C362" s="3">
+        <v>9</v>
+      </c>
+      <c r="D362" s="3">
+        <v>48</v>
+      </c>
+      <c r="E362" s="3">
+        <v>54</v>
+      </c>
+      <c r="F362" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A363" s="2">
+        <v>6854</v>
+      </c>
+      <c r="B363" s="3">
+        <v>8</v>
+      </c>
+      <c r="C363" s="3">
+        <v>42</v>
+      </c>
+      <c r="D363" s="3">
+        <v>53</v>
+      </c>
+      <c r="E363" s="3">
+        <v>65</v>
+      </c>
+      <c r="F363" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A364" s="2">
+        <v>6855</v>
+      </c>
+      <c r="B364" s="3">
+        <v>4</v>
+      </c>
+      <c r="C364" s="3">
+        <v>6</v>
+      </c>
+      <c r="D364" s="3">
+        <v>33</v>
+      </c>
+      <c r="E364" s="3">
+        <v>56</v>
+      </c>
+      <c r="F364" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A365" s="2">
+        <v>6856</v>
+      </c>
+      <c r="B365" s="3">
+        <v>5</v>
+      </c>
+      <c r="C365" s="3">
+        <v>10</v>
+      </c>
+      <c r="D365" s="3">
+        <v>16</v>
+      </c>
+      <c r="E365" s="3">
+        <v>33</v>
+      </c>
+      <c r="F365" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A366" s="2">
+        <v>6857</v>
+      </c>
+      <c r="B366" s="3">
+        <v>21</v>
+      </c>
+      <c r="C366" s="3">
+        <v>32</v>
+      </c>
+      <c r="D366" s="3">
+        <v>34</v>
+      </c>
+      <c r="E366" s="3">
+        <v>41</v>
+      </c>
+      <c r="F366" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A367" s="2">
+        <v>6858</v>
+      </c>
+      <c r="B367" s="3">
+        <v>31</v>
+      </c>
+      <c r="C367" s="3">
+        <v>55</v>
+      </c>
+      <c r="D367" s="3">
+        <v>70</v>
+      </c>
+      <c r="E367" s="3">
+        <v>78</v>
+      </c>
+      <c r="F367" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A368" s="2">
+        <v>6859</v>
+      </c>
+      <c r="B368" s="3">
+        <v>23</v>
+      </c>
+      <c r="C368" s="3">
+        <v>33</v>
+      </c>
+      <c r="D368" s="3">
+        <v>36</v>
+      </c>
+      <c r="E368" s="3">
+        <v>39</v>
+      </c>
+      <c r="F368" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A369" s="2">
+        <v>6860</v>
+      </c>
+      <c r="B369" s="3">
+        <v>12</v>
+      </c>
+      <c r="C369" s="3">
+        <v>46</v>
+      </c>
+      <c r="D369" s="3">
+        <v>58</v>
+      </c>
+      <c r="E369" s="3">
+        <v>62</v>
+      </c>
+      <c r="F369" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A370" s="2">
+        <v>6861</v>
+      </c>
+      <c r="B370" s="3">
+        <v>26</v>
+      </c>
+      <c r="C370" s="3">
+        <v>32</v>
+      </c>
+      <c r="D370" s="3">
+        <v>42</v>
+      </c>
+      <c r="E370" s="3">
+        <v>57</v>
+      </c>
+      <c r="F370" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A371" s="2">
+        <v>6862</v>
+      </c>
+      <c r="B371" s="3">
+        <v>11</v>
+      </c>
+      <c r="C371" s="3">
+        <v>39</v>
+      </c>
+      <c r="D371" s="3">
+        <v>51</v>
+      </c>
+      <c r="E371" s="3">
+        <v>62</v>
+      </c>
+      <c r="F371" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A372" s="2">
+        <v>6863</v>
+      </c>
+      <c r="B372" s="3">
+        <v>28</v>
+      </c>
+      <c r="C372" s="3">
+        <v>47</v>
+      </c>
+      <c r="D372" s="3">
+        <v>50</v>
+      </c>
+      <c r="E372" s="3">
+        <v>65</v>
+      </c>
+      <c r="F372" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A373" s="2">
+        <v>6864</v>
+      </c>
+      <c r="B373" s="3">
+        <v>6</v>
+      </c>
+      <c r="C373" s="3">
+        <v>18</v>
+      </c>
+      <c r="D373" s="3">
+        <v>55</v>
+      </c>
+      <c r="E373" s="3">
+        <v>58</v>
+      </c>
+      <c r="F373" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A374" s="2">
+        <v>6865</v>
+      </c>
+      <c r="B374" s="3">
+        <v>29</v>
+      </c>
+      <c r="C374" s="3">
+        <v>42</v>
+      </c>
+      <c r="D374" s="3">
+        <v>55</v>
+      </c>
+      <c r="E374" s="3">
+        <v>71</v>
+      </c>
+      <c r="F374" s="3">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9893785-0F01-4AED-9AF7-038E4D14744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5AF8E-2DB9-4A89-A322-8C50840035BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77490" yWindow="915" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58230" yWindow="285" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F374"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="B354" sqref="B354:F374"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="B375" sqref="B375:F382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7502,423 +7502,583 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A354" s="2">
+      <c r="A354">
         <v>6845</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354">
         <v>30</v>
       </c>
-      <c r="C354" s="3">
+      <c r="C354">
         <v>45</v>
       </c>
-      <c r="D354" s="3">
+      <c r="D354">
         <v>56</v>
       </c>
-      <c r="E354" s="3">
+      <c r="E354">
         <v>57</v>
       </c>
-      <c r="F354" s="3">
+      <c r="F354">
         <v>62</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A355" s="2">
+      <c r="A355">
         <v>6846</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355">
         <v>4</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C355">
         <v>49</v>
       </c>
-      <c r="D355" s="3">
+      <c r="D355">
         <v>51</v>
       </c>
-      <c r="E355" s="3">
+      <c r="E355">
         <v>57</v>
       </c>
-      <c r="F355" s="3">
+      <c r="F355">
         <v>63</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A356" s="2">
+      <c r="A356">
         <v>6847</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356">
         <v>17</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C356">
         <v>18</v>
       </c>
-      <c r="D356" s="3">
+      <c r="D356">
         <v>27</v>
       </c>
-      <c r="E356" s="3">
+      <c r="E356">
         <v>66</v>
       </c>
-      <c r="F356" s="3">
+      <c r="F356">
         <v>71</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A357" s="2">
+      <c r="A357">
         <v>6848</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357">
         <v>31</v>
       </c>
-      <c r="C357" s="3">
+      <c r="C357">
         <v>32</v>
       </c>
-      <c r="D357" s="3">
+      <c r="D357">
         <v>34</v>
       </c>
-      <c r="E357" s="3">
+      <c r="E357">
         <v>45</v>
       </c>
-      <c r="F357" s="3">
+      <c r="F357">
         <v>80</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A358" s="2">
+      <c r="A358">
         <v>6849</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358">
         <v>13</v>
       </c>
-      <c r="C358" s="3">
+      <c r="C358">
         <v>22</v>
       </c>
-      <c r="D358" s="3">
+      <c r="D358">
         <v>23</v>
       </c>
-      <c r="E358" s="3">
+      <c r="E358">
         <v>30</v>
       </c>
-      <c r="F358" s="3">
+      <c r="F358">
         <v>67</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A359" s="2">
+      <c r="A359">
         <v>6850</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359">
         <v>34</v>
       </c>
-      <c r="C359" s="3">
+      <c r="C359">
         <v>55</v>
       </c>
-      <c r="D359" s="3">
+      <c r="D359">
         <v>61</v>
       </c>
-      <c r="E359" s="3">
+      <c r="E359">
         <v>71</v>
       </c>
-      <c r="F359" s="3">
+      <c r="F359">
         <v>72</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A360" s="2">
+      <c r="A360">
         <v>6851</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360">
         <v>13</v>
       </c>
-      <c r="C360" s="3">
+      <c r="C360">
         <v>18</v>
       </c>
-      <c r="D360" s="3">
+      <c r="D360">
         <v>32</v>
       </c>
-      <c r="E360" s="3">
+      <c r="E360">
         <v>42</v>
       </c>
-      <c r="F360" s="3">
+      <c r="F360">
         <v>55</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A361" s="2">
+      <c r="A361">
         <v>6852</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361">
         <v>24</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C361">
         <v>46</v>
       </c>
-      <c r="D361" s="3">
+      <c r="D361">
         <v>50</v>
       </c>
-      <c r="E361" s="3">
+      <c r="E361">
         <v>62</v>
       </c>
-      <c r="F361" s="3">
+      <c r="F361">
         <v>68</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A362" s="2">
+      <c r="A362">
         <v>6853</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362">
         <v>7</v>
       </c>
-      <c r="C362" s="3">
+      <c r="C362">
         <v>9</v>
       </c>
-      <c r="D362" s="3">
+      <c r="D362">
         <v>48</v>
       </c>
-      <c r="E362" s="3">
+      <c r="E362">
         <v>54</v>
       </c>
-      <c r="F362" s="3">
+      <c r="F362">
         <v>75</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A363" s="2">
+      <c r="A363">
         <v>6854</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363">
         <v>8</v>
       </c>
-      <c r="C363" s="3">
+      <c r="C363">
         <v>42</v>
       </c>
-      <c r="D363" s="3">
+      <c r="D363">
         <v>53</v>
       </c>
-      <c r="E363" s="3">
+      <c r="E363">
         <v>65</v>
       </c>
-      <c r="F363" s="3">
+      <c r="F363">
         <v>68</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A364" s="2">
+      <c r="A364">
         <v>6855</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364">
         <v>4</v>
       </c>
-      <c r="C364" s="3">
+      <c r="C364">
         <v>6</v>
       </c>
-      <c r="D364" s="3">
+      <c r="D364">
         <v>33</v>
       </c>
-      <c r="E364" s="3">
+      <c r="E364">
         <v>56</v>
       </c>
-      <c r="F364" s="3">
+      <c r="F364">
         <v>63</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A365" s="2">
+      <c r="A365">
         <v>6856</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365">
         <v>5</v>
       </c>
-      <c r="C365" s="3">
+      <c r="C365">
         <v>10</v>
       </c>
-      <c r="D365" s="3">
+      <c r="D365">
         <v>16</v>
       </c>
-      <c r="E365" s="3">
+      <c r="E365">
         <v>33</v>
       </c>
-      <c r="F365" s="3">
+      <c r="F365">
         <v>53</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A366" s="2">
+      <c r="A366">
         <v>6857</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366">
         <v>21</v>
       </c>
-      <c r="C366" s="3">
+      <c r="C366">
         <v>32</v>
       </c>
-      <c r="D366" s="3">
+      <c r="D366">
         <v>34</v>
       </c>
-      <c r="E366" s="3">
+      <c r="E366">
         <v>41</v>
       </c>
-      <c r="F366" s="3">
+      <c r="F366">
         <v>46</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A367" s="2">
+      <c r="A367">
         <v>6858</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367">
         <v>31</v>
       </c>
-      <c r="C367" s="3">
+      <c r="C367">
         <v>55</v>
       </c>
-      <c r="D367" s="3">
+      <c r="D367">
         <v>70</v>
       </c>
-      <c r="E367" s="3">
+      <c r="E367">
         <v>78</v>
       </c>
-      <c r="F367" s="3">
+      <c r="F367">
         <v>80</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A368" s="2">
+      <c r="A368">
         <v>6859</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368">
         <v>23</v>
       </c>
-      <c r="C368" s="3">
+      <c r="C368">
         <v>33</v>
       </c>
-      <c r="D368" s="3">
+      <c r="D368">
         <v>36</v>
       </c>
-      <c r="E368" s="3">
+      <c r="E368">
         <v>39</v>
       </c>
-      <c r="F368" s="3">
+      <c r="F368">
         <v>79</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A369" s="2">
+      <c r="A369">
         <v>6860</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369">
         <v>12</v>
       </c>
-      <c r="C369" s="3">
+      <c r="C369">
         <v>46</v>
       </c>
-      <c r="D369" s="3">
+      <c r="D369">
         <v>58</v>
       </c>
-      <c r="E369" s="3">
+      <c r="E369">
         <v>62</v>
       </c>
-      <c r="F369" s="3">
+      <c r="F369">
         <v>69</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A370" s="2">
+      <c r="A370">
         <v>6861</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370">
         <v>26</v>
       </c>
-      <c r="C370" s="3">
+      <c r="C370">
         <v>32</v>
       </c>
-      <c r="D370" s="3">
+      <c r="D370">
         <v>42</v>
       </c>
-      <c r="E370" s="3">
+      <c r="E370">
         <v>57</v>
       </c>
-      <c r="F370" s="3">
+      <c r="F370">
         <v>78</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A371" s="2">
+      <c r="A371">
         <v>6862</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371">
         <v>11</v>
       </c>
-      <c r="C371" s="3">
+      <c r="C371">
         <v>39</v>
       </c>
-      <c r="D371" s="3">
+      <c r="D371">
         <v>51</v>
       </c>
-      <c r="E371" s="3">
+      <c r="E371">
         <v>62</v>
       </c>
-      <c r="F371" s="3">
+      <c r="F371">
         <v>68</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A372" s="2">
+      <c r="A372">
         <v>6863</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372">
         <v>28</v>
       </c>
-      <c r="C372" s="3">
+      <c r="C372">
         <v>47</v>
       </c>
-      <c r="D372" s="3">
+      <c r="D372">
         <v>50</v>
       </c>
-      <c r="E372" s="3">
+      <c r="E372">
         <v>65</v>
       </c>
-      <c r="F372" s="3">
+      <c r="F372">
         <v>79</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A373" s="2">
+      <c r="A373">
         <v>6864</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373">
         <v>6</v>
       </c>
-      <c r="C373" s="3">
+      <c r="C373">
         <v>18</v>
       </c>
-      <c r="D373" s="3">
+      <c r="D373">
         <v>55</v>
       </c>
-      <c r="E373" s="3">
+      <c r="E373">
         <v>58</v>
       </c>
-      <c r="F373" s="3">
+      <c r="F373">
         <v>78</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A374" s="2">
+      <c r="A374">
         <v>6865</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374">
         <v>29</v>
       </c>
-      <c r="C374" s="3">
+      <c r="C374">
         <v>42</v>
       </c>
-      <c r="D374" s="3">
+      <c r="D374">
         <v>55</v>
       </c>
-      <c r="E374" s="3">
+      <c r="E374">
         <v>71</v>
       </c>
-      <c r="F374" s="3">
+      <c r="F374">
         <v>75</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A375" s="2">
+        <v>6866</v>
+      </c>
+      <c r="B375" s="3">
+        <v>2</v>
+      </c>
+      <c r="C375" s="3">
+        <v>12</v>
+      </c>
+      <c r="D375" s="3">
+        <v>46</v>
+      </c>
+      <c r="E375" s="3">
+        <v>65</v>
+      </c>
+      <c r="F375" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A376" s="2">
+        <v>6867</v>
+      </c>
+      <c r="B376" s="3">
+        <v>4</v>
+      </c>
+      <c r="C376" s="3">
+        <v>5</v>
+      </c>
+      <c r="D376" s="3">
+        <v>18</v>
+      </c>
+      <c r="E376" s="3">
+        <v>19</v>
+      </c>
+      <c r="F376" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A377" s="2">
+        <v>6868</v>
+      </c>
+      <c r="B377" s="3">
+        <v>10</v>
+      </c>
+      <c r="C377" s="3">
+        <v>17</v>
+      </c>
+      <c r="D377" s="3">
+        <v>26</v>
+      </c>
+      <c r="E377" s="3">
+        <v>33</v>
+      </c>
+      <c r="F377" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A378" s="2">
+        <v>6869</v>
+      </c>
+      <c r="B378" s="3">
+        <v>29</v>
+      </c>
+      <c r="C378" s="3">
+        <v>38</v>
+      </c>
+      <c r="D378" s="3">
+        <v>59</v>
+      </c>
+      <c r="E378" s="3">
+        <v>64</v>
+      </c>
+      <c r="F378" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A379" s="2">
+        <v>6870</v>
+      </c>
+      <c r="B379" s="3">
+        <v>18</v>
+      </c>
+      <c r="C379" s="3">
+        <v>19</v>
+      </c>
+      <c r="D379" s="3">
+        <v>20</v>
+      </c>
+      <c r="E379" s="3">
+        <v>42</v>
+      </c>
+      <c r="F379" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A380" s="2">
+        <v>6871</v>
+      </c>
+      <c r="B380" s="3">
+        <v>7</v>
+      </c>
+      <c r="C380" s="3">
+        <v>21</v>
+      </c>
+      <c r="D380" s="3">
+        <v>31</v>
+      </c>
+      <c r="E380" s="3">
+        <v>44</v>
+      </c>
+      <c r="F380" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A381" s="2">
+        <v>6872</v>
+      </c>
+      <c r="B381" s="3">
+        <v>3</v>
+      </c>
+      <c r="C381" s="3">
+        <v>6</v>
+      </c>
+      <c r="D381" s="3">
+        <v>26</v>
+      </c>
+      <c r="E381" s="3">
+        <v>37</v>
+      </c>
+      <c r="F381" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A382" s="2">
+        <v>6873</v>
+      </c>
+      <c r="B382" s="3">
+        <v>9</v>
+      </c>
+      <c r="C382" s="3">
+        <v>24</v>
+      </c>
+      <c r="D382" s="3">
+        <v>28</v>
+      </c>
+      <c r="E382" s="3">
+        <v>35</v>
+      </c>
+      <c r="F382" s="3">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7927,6 +8087,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8094,15 +8263,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8114,6 +8274,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0BA4B3-539F-4533-9D8B-E25FB604EF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8133,14 +8301,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5AF8E-2DB9-4A89-A322-8C50840035BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02A4A7-3048-4278-A628-E8F47A1FF894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58230" yWindow="285" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="8490" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -103,13 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,14 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F382"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375:F382"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="G382" sqref="G382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="4" max="4" width="9.23046875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7922,163 +7921,223 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A375" s="2">
+      <c r="A375">
         <v>6866</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375">
         <v>2</v>
       </c>
-      <c r="C375" s="3">
+      <c r="C375">
         <v>12</v>
       </c>
-      <c r="D375" s="3">
+      <c r="D375">
         <v>46</v>
       </c>
-      <c r="E375" s="3">
+      <c r="E375">
         <v>65</v>
       </c>
-      <c r="F375" s="3">
+      <c r="F375">
         <v>73</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A376" s="2">
+      <c r="A376">
         <v>6867</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376">
         <v>4</v>
       </c>
-      <c r="C376" s="3">
+      <c r="C376">
         <v>5</v>
       </c>
-      <c r="D376" s="3">
+      <c r="D376">
         <v>18</v>
       </c>
-      <c r="E376" s="3">
+      <c r="E376">
         <v>19</v>
       </c>
-      <c r="F376" s="3">
+      <c r="F376">
         <v>56</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A377" s="2">
+      <c r="A377">
         <v>6868</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377">
         <v>10</v>
       </c>
-      <c r="C377" s="3">
+      <c r="C377">
         <v>17</v>
       </c>
-      <c r="D377" s="3">
+      <c r="D377">
         <v>26</v>
       </c>
-      <c r="E377" s="3">
+      <c r="E377">
         <v>33</v>
       </c>
-      <c r="F377" s="3">
+      <c r="F377">
         <v>38</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A378" s="2">
+      <c r="A378">
         <v>6869</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378">
         <v>29</v>
       </c>
-      <c r="C378" s="3">
+      <c r="C378">
         <v>38</v>
       </c>
-      <c r="D378" s="3">
+      <c r="D378">
         <v>59</v>
       </c>
-      <c r="E378" s="3">
+      <c r="E378">
         <v>64</v>
       </c>
-      <c r="F378" s="3">
+      <c r="F378">
         <v>65</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A379" s="2">
+      <c r="A379">
         <v>6870</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379">
         <v>18</v>
       </c>
-      <c r="C379" s="3">
+      <c r="C379">
         <v>19</v>
       </c>
-      <c r="D379" s="3">
+      <c r="D379">
         <v>20</v>
       </c>
-      <c r="E379" s="3">
+      <c r="E379">
         <v>42</v>
       </c>
-      <c r="F379" s="3">
+      <c r="F379">
         <v>46</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A380" s="2">
+      <c r="A380">
         <v>6871</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380">
         <v>7</v>
       </c>
-      <c r="C380" s="3">
+      <c r="C380">
         <v>21</v>
       </c>
-      <c r="D380" s="3">
+      <c r="D380">
         <v>31</v>
       </c>
-      <c r="E380" s="3">
+      <c r="E380">
         <v>44</v>
       </c>
-      <c r="F380" s="3">
+      <c r="F380">
         <v>45</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A381" s="2">
+      <c r="A381">
         <v>6872</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381">
         <v>3</v>
       </c>
-      <c r="C381" s="3">
+      <c r="C381">
         <v>6</v>
       </c>
-      <c r="D381" s="3">
+      <c r="D381">
         <v>26</v>
       </c>
-      <c r="E381" s="3">
+      <c r="E381">
         <v>37</v>
       </c>
-      <c r="F381" s="3">
+      <c r="F381">
         <v>44</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A382" s="2">
+      <c r="A382">
         <v>6873</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382">
         <v>9</v>
       </c>
-      <c r="C382" s="3">
+      <c r="C382">
         <v>24</v>
       </c>
-      <c r="D382" s="3">
+      <c r="D382">
         <v>28</v>
       </c>
-      <c r="E382" s="3">
+      <c r="E382">
         <v>35</v>
       </c>
-      <c r="F382" s="3">
+      <c r="F382">
         <v>36</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A383">
+        <v>6874</v>
+      </c>
+      <c r="B383">
+        <v>3</v>
+      </c>
+      <c r="C383">
+        <v>36</v>
+      </c>
+      <c r="D383">
+        <v>61</v>
+      </c>
+      <c r="E383">
+        <v>63</v>
+      </c>
+      <c r="F383">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A384">
+        <v>6875</v>
+      </c>
+      <c r="B384">
+        <v>9</v>
+      </c>
+      <c r="C384">
+        <v>22</v>
+      </c>
+      <c r="D384">
+        <v>23</v>
+      </c>
+      <c r="E384">
+        <v>34</v>
+      </c>
+      <c r="F384">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A385">
+        <v>6876</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>11</v>
+      </c>
+      <c r="D385">
+        <v>17</v>
+      </c>
+      <c r="E385">
+        <v>22</v>
+      </c>
+      <c r="F385">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -8087,15 +8146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8263,6 +8313,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8274,14 +8333,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0BA4B3-539F-4533-9D8B-E25FB604EF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8301,6 +8352,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02A4A7-3048-4278-A628-E8F47A1FF894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E408E7-22F9-4A9F-AFF6-784E9724CEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="8490" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="67335" yWindow="3510" windowWidth="28800" windowHeight="15150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F385"/>
+  <dimension ref="A1:F387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="G382" sqref="G382"/>
+      <selection activeCell="F388" sqref="F388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8140,12 +8140,71 @@
         <v>46</v>
       </c>
     </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A386">
+        <v>6877</v>
+      </c>
+      <c r="B386">
+        <v>26</v>
+      </c>
+      <c r="C386">
+        <v>27</v>
+      </c>
+      <c r="D386">
+        <v>36</v>
+      </c>
+      <c r="E386">
+        <v>41</v>
+      </c>
+      <c r="F386">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A387">
+        <v>6878</v>
+      </c>
+      <c r="B387">
+        <v>18</v>
+      </c>
+      <c r="C387">
+        <v>20</v>
+      </c>
+      <c r="D387">
+        <v>23</v>
+      </c>
+      <c r="E387">
+        <v>51</v>
+      </c>
+      <c r="F387">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8313,26 +8372,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0BA4B3-539F-4533-9D8B-E25FB604EF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8350,23 +8409,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E408E7-22F9-4A9F-AFF6-784E9724CEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F8BBE-E8DD-42CD-95E2-B9EE7684376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67335" yWindow="3510" windowWidth="28800" windowHeight="15150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="62925" yWindow="2535" windowWidth="15675" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F387"/>
+  <dimension ref="A1:F389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="F388" sqref="F388"/>
+      <selection activeCell="G393" sqref="G393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8180,12 +8180,61 @@
         <v>56</v>
       </c>
     </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A388">
+        <v>6879</v>
+      </c>
+      <c r="B388">
+        <v>4</v>
+      </c>
+      <c r="C388">
+        <v>25</v>
+      </c>
+      <c r="D388">
+        <v>32</v>
+      </c>
+      <c r="E388">
+        <v>43</v>
+      </c>
+      <c r="F388">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A389">
+        <v>6880</v>
+      </c>
+      <c r="B389">
+        <v>31</v>
+      </c>
+      <c r="C389">
+        <v>44</v>
+      </c>
+      <c r="D389">
+        <v>57</v>
+      </c>
+      <c r="E389">
+        <v>61</v>
+      </c>
+      <c r="F389">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8193,15 +8242,6 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8373,20 +8413,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F8BBE-E8DD-42CD-95E2-B9EE7684376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53CE1C0-BC9E-4C48-BAEC-54272FF87259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62925" yWindow="2535" windowWidth="15675" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="72090" yWindow="465" windowWidth="21150" windowHeight="8955" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -103,11 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F389"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="G393" sqref="G393"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="B390" sqref="B390:F400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8220,21 +8222,232 @@
         <v>62</v>
       </c>
     </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A390" s="2">
+        <v>6881</v>
+      </c>
+      <c r="B390" s="3">
+        <v>26</v>
+      </c>
+      <c r="C390" s="3">
+        <v>49</v>
+      </c>
+      <c r="D390" s="3">
+        <v>52</v>
+      </c>
+      <c r="E390" s="3">
+        <v>54</v>
+      </c>
+      <c r="F390" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A391" s="2">
+        <v>6882</v>
+      </c>
+      <c r="B391" s="3">
+        <v>16</v>
+      </c>
+      <c r="C391" s="3">
+        <v>18</v>
+      </c>
+      <c r="D391" s="3">
+        <v>36</v>
+      </c>
+      <c r="E391" s="3">
+        <v>60</v>
+      </c>
+      <c r="F391" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A392" s="2">
+        <v>6883</v>
+      </c>
+      <c r="B392" s="3">
+        <v>8</v>
+      </c>
+      <c r="C392" s="3">
+        <v>44</v>
+      </c>
+      <c r="D392" s="3">
+        <v>45</v>
+      </c>
+      <c r="E392" s="3">
+        <v>52</v>
+      </c>
+      <c r="F392" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A393" s="2">
+        <v>6884</v>
+      </c>
+      <c r="B393" s="3">
+        <v>5</v>
+      </c>
+      <c r="C393" s="3">
+        <v>18</v>
+      </c>
+      <c r="D393" s="3">
+        <v>46</v>
+      </c>
+      <c r="E393" s="3">
+        <v>55</v>
+      </c>
+      <c r="F393" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A394" s="2">
+        <v>6885</v>
+      </c>
+      <c r="B394" s="3">
+        <v>12</v>
+      </c>
+      <c r="C394" s="3">
+        <v>39</v>
+      </c>
+      <c r="D394" s="3">
+        <v>41</v>
+      </c>
+      <c r="E394" s="3">
+        <v>68</v>
+      </c>
+      <c r="F394" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A395" s="2">
+        <v>6886</v>
+      </c>
+      <c r="B395" s="3">
+        <v>9</v>
+      </c>
+      <c r="C395" s="3">
+        <v>20</v>
+      </c>
+      <c r="D395" s="3">
+        <v>33</v>
+      </c>
+      <c r="E395" s="3">
+        <v>63</v>
+      </c>
+      <c r="F395" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A396" s="2">
+        <v>6887</v>
+      </c>
+      <c r="B396" s="3">
+        <v>16</v>
+      </c>
+      <c r="C396" s="3">
+        <v>29</v>
+      </c>
+      <c r="D396" s="3">
+        <v>57</v>
+      </c>
+      <c r="E396" s="3">
+        <v>67</v>
+      </c>
+      <c r="F396" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A397" s="2">
+        <v>6888</v>
+      </c>
+      <c r="B397" s="3">
+        <v>5</v>
+      </c>
+      <c r="C397" s="3">
+        <v>29</v>
+      </c>
+      <c r="D397" s="3">
+        <v>37</v>
+      </c>
+      <c r="E397" s="3">
+        <v>52</v>
+      </c>
+      <c r="F397" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A398" s="2">
+        <v>6889</v>
+      </c>
+      <c r="B398" s="3">
+        <v>1</v>
+      </c>
+      <c r="C398" s="3">
+        <v>6</v>
+      </c>
+      <c r="D398" s="3">
+        <v>28</v>
+      </c>
+      <c r="E398" s="3">
+        <v>41</v>
+      </c>
+      <c r="F398" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A399" s="2">
+        <v>6890</v>
+      </c>
+      <c r="B399" s="3">
+        <v>8</v>
+      </c>
+      <c r="C399" s="3">
+        <v>12</v>
+      </c>
+      <c r="D399" s="3">
+        <v>67</v>
+      </c>
+      <c r="E399" s="3">
+        <v>68</v>
+      </c>
+      <c r="F399" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A400" s="2">
+        <v>6891</v>
+      </c>
+      <c r="B400" s="3">
+        <v>19</v>
+      </c>
+      <c r="C400" s="3">
+        <v>29</v>
+      </c>
+      <c r="D400" s="3">
+        <v>35</v>
+      </c>
+      <c r="E400" s="3">
+        <v>64</v>
+      </c>
+      <c r="F400" s="3">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8242,6 +8455,15 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8413,20 +8635,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53CE1C0-BC9E-4C48-BAEC-54272FF87259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE5F70-5C5F-46BF-AC48-22AF3C77AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72090" yWindow="465" windowWidth="21150" windowHeight="8955" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="76230" yWindow="6225" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F400"/>
+  <dimension ref="A1:F411"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="B390" sqref="B390:F400"/>
+      <selection activeCell="B401" sqref="B401:F411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8223,223 +8223,443 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A390" s="2">
+      <c r="A390">
         <v>6881</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390">
         <v>26</v>
       </c>
-      <c r="C390" s="3">
+      <c r="C390">
         <v>49</v>
       </c>
-      <c r="D390" s="3">
+      <c r="D390">
         <v>52</v>
       </c>
-      <c r="E390" s="3">
+      <c r="E390">
         <v>54</v>
       </c>
-      <c r="F390" s="3">
+      <c r="F390">
         <v>57</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A391" s="2">
+      <c r="A391">
         <v>6882</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391">
         <v>16</v>
       </c>
-      <c r="C391" s="3">
+      <c r="C391">
         <v>18</v>
       </c>
-      <c r="D391" s="3">
+      <c r="D391">
         <v>36</v>
       </c>
-      <c r="E391" s="3">
+      <c r="E391">
         <v>60</v>
       </c>
-      <c r="F391" s="3">
+      <c r="F391">
         <v>80</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A392" s="2">
+      <c r="A392">
         <v>6883</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392">
         <v>8</v>
       </c>
-      <c r="C392" s="3">
+      <c r="C392">
         <v>44</v>
       </c>
-      <c r="D392" s="3">
+      <c r="D392">
         <v>45</v>
       </c>
-      <c r="E392" s="3">
+      <c r="E392">
         <v>52</v>
       </c>
-      <c r="F392" s="3">
+      <c r="F392">
         <v>78</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A393" s="2">
+      <c r="A393">
         <v>6884</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393">
         <v>5</v>
       </c>
-      <c r="C393" s="3">
+      <c r="C393">
         <v>18</v>
       </c>
-      <c r="D393" s="3">
+      <c r="D393">
         <v>46</v>
       </c>
-      <c r="E393" s="3">
+      <c r="E393">
         <v>55</v>
       </c>
-      <c r="F393" s="3">
+      <c r="F393">
         <v>70</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A394" s="2">
+      <c r="A394">
         <v>6885</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394">
         <v>12</v>
       </c>
-      <c r="C394" s="3">
+      <c r="C394">
         <v>39</v>
       </c>
-      <c r="D394" s="3">
+      <c r="D394">
         <v>41</v>
       </c>
-      <c r="E394" s="3">
+      <c r="E394">
         <v>68</v>
       </c>
-      <c r="F394" s="3">
+      <c r="F394">
         <v>78</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A395" s="2">
+      <c r="A395">
         <v>6886</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395">
         <v>9</v>
       </c>
-      <c r="C395" s="3">
+      <c r="C395">
         <v>20</v>
       </c>
-      <c r="D395" s="3">
+      <c r="D395">
         <v>33</v>
       </c>
-      <c r="E395" s="3">
+      <c r="E395">
         <v>63</v>
       </c>
-      <c r="F395" s="3">
+      <c r="F395">
         <v>69</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A396" s="2">
+      <c r="A396">
         <v>6887</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396">
         <v>16</v>
       </c>
-      <c r="C396" s="3">
+      <c r="C396">
         <v>29</v>
       </c>
-      <c r="D396" s="3">
+      <c r="D396">
         <v>57</v>
       </c>
-      <c r="E396" s="3">
+      <c r="E396">
         <v>67</v>
       </c>
-      <c r="F396" s="3">
+      <c r="F396">
         <v>72</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A397" s="2">
+      <c r="A397">
         <v>6888</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397">
         <v>5</v>
       </c>
-      <c r="C397" s="3">
+      <c r="C397">
         <v>29</v>
       </c>
-      <c r="D397" s="3">
+      <c r="D397">
         <v>37</v>
       </c>
-      <c r="E397" s="3">
+      <c r="E397">
         <v>52</v>
       </c>
-      <c r="F397" s="3">
+      <c r="F397">
         <v>69</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A398" s="2">
+      <c r="A398">
         <v>6889</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398">
         <v>1</v>
       </c>
-      <c r="C398" s="3">
+      <c r="C398">
         <v>6</v>
       </c>
-      <c r="D398" s="3">
+      <c r="D398">
         <v>28</v>
       </c>
-      <c r="E398" s="3">
+      <c r="E398">
         <v>41</v>
       </c>
-      <c r="F398" s="3">
+      <c r="F398">
         <v>42</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A399" s="2">
+      <c r="A399">
         <v>6890</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399">
         <v>8</v>
       </c>
-      <c r="C399" s="3">
+      <c r="C399">
         <v>12</v>
       </c>
-      <c r="D399" s="3">
+      <c r="D399">
         <v>67</v>
       </c>
-      <c r="E399" s="3">
+      <c r="E399">
         <v>68</v>
       </c>
-      <c r="F399" s="3">
+      <c r="F399">
         <v>70</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A400" s="2">
+      <c r="A400">
         <v>6891</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400">
         <v>19</v>
       </c>
-      <c r="C400" s="3">
+      <c r="C400">
         <v>29</v>
       </c>
-      <c r="D400" s="3">
+      <c r="D400">
         <v>35</v>
       </c>
-      <c r="E400" s="3">
+      <c r="E400">
         <v>64</v>
       </c>
-      <c r="F400" s="3">
+      <c r="F400">
         <v>78</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A401" s="2">
+        <v>6892</v>
+      </c>
+      <c r="B401" s="3">
+        <v>10</v>
+      </c>
+      <c r="C401" s="3">
+        <v>21</v>
+      </c>
+      <c r="D401" s="3">
+        <v>38</v>
+      </c>
+      <c r="E401" s="3">
+        <v>73</v>
+      </c>
+      <c r="F401" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A402" s="2">
+        <v>6893</v>
+      </c>
+      <c r="B402" s="3">
+        <v>6</v>
+      </c>
+      <c r="C402" s="3">
+        <v>31</v>
+      </c>
+      <c r="D402" s="3">
+        <v>64</v>
+      </c>
+      <c r="E402" s="3">
+        <v>68</v>
+      </c>
+      <c r="F402" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A403" s="2">
+        <v>6894</v>
+      </c>
+      <c r="B403" s="3">
+        <v>22</v>
+      </c>
+      <c r="C403" s="3">
+        <v>24</v>
+      </c>
+      <c r="D403" s="3">
+        <v>33</v>
+      </c>
+      <c r="E403" s="3">
+        <v>44</v>
+      </c>
+      <c r="F403" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A404" s="2">
+        <v>6895</v>
+      </c>
+      <c r="B404" s="3">
+        <v>15</v>
+      </c>
+      <c r="C404" s="3">
+        <v>38</v>
+      </c>
+      <c r="D404" s="3">
+        <v>64</v>
+      </c>
+      <c r="E404" s="3">
+        <v>67</v>
+      </c>
+      <c r="F404" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A405" s="2">
+        <v>6896</v>
+      </c>
+      <c r="B405" s="3">
+        <v>3</v>
+      </c>
+      <c r="C405" s="3">
+        <v>23</v>
+      </c>
+      <c r="D405" s="3">
+        <v>64</v>
+      </c>
+      <c r="E405" s="3">
+        <v>66</v>
+      </c>
+      <c r="F405" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A406" s="2">
+        <v>6897</v>
+      </c>
+      <c r="B406" s="3">
+        <v>3</v>
+      </c>
+      <c r="C406" s="3">
+        <v>19</v>
+      </c>
+      <c r="D406" s="3">
+        <v>35</v>
+      </c>
+      <c r="E406" s="3">
+        <v>75</v>
+      </c>
+      <c r="F406" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A407" s="2">
+        <v>6898</v>
+      </c>
+      <c r="B407" s="3">
+        <v>13</v>
+      </c>
+      <c r="C407" s="3">
+        <v>32</v>
+      </c>
+      <c r="D407" s="3">
+        <v>63</v>
+      </c>
+      <c r="E407" s="3">
+        <v>65</v>
+      </c>
+      <c r="F407" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A408" s="2">
+        <v>6899</v>
+      </c>
+      <c r="B408" s="3">
+        <v>17</v>
+      </c>
+      <c r="C408" s="3">
+        <v>42</v>
+      </c>
+      <c r="D408" s="3">
+        <v>50</v>
+      </c>
+      <c r="E408" s="3">
+        <v>56</v>
+      </c>
+      <c r="F408" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A409" s="2">
+        <v>6900</v>
+      </c>
+      <c r="B409" s="3">
+        <v>10</v>
+      </c>
+      <c r="C409" s="3">
+        <v>33</v>
+      </c>
+      <c r="D409" s="3">
+        <v>34</v>
+      </c>
+      <c r="E409" s="3">
+        <v>36</v>
+      </c>
+      <c r="F409" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A410" s="2">
+        <v>6901</v>
+      </c>
+      <c r="B410" s="3">
+        <v>6</v>
+      </c>
+      <c r="C410" s="3">
+        <v>42</v>
+      </c>
+      <c r="D410" s="3">
+        <v>45</v>
+      </c>
+      <c r="E410" s="3">
+        <v>57</v>
+      </c>
+      <c r="F410" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A411" s="2">
+        <v>6902</v>
+      </c>
+      <c r="B411" s="3">
+        <v>8</v>
+      </c>
+      <c r="C411" s="3">
+        <v>24</v>
+      </c>
+      <c r="D411" s="3">
+        <v>44</v>
+      </c>
+      <c r="E411" s="3">
+        <v>57</v>
+      </c>
+      <c r="F411" s="3">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8448,6 +8668,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8455,15 +8684,6 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8635,20 +8855,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE5F70-5C5F-46BF-AC48-22AF3C77AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ACC938-2C4B-47B3-80ED-1AFF8FD8B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76230" yWindow="6225" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58560" yWindow="1395" windowWidth="19665" windowHeight="12510" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -103,13 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F411"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="B401" sqref="B401:F411"/>
+      <selection activeCell="G412" sqref="G412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8443,223 +8441,283 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A401" s="2">
+      <c r="A401">
         <v>6892</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401">
         <v>10</v>
       </c>
-      <c r="C401" s="3">
+      <c r="C401">
         <v>21</v>
       </c>
-      <c r="D401" s="3">
+      <c r="D401">
         <v>38</v>
       </c>
-      <c r="E401" s="3">
+      <c r="E401">
         <v>73</v>
       </c>
-      <c r="F401" s="3">
+      <c r="F401">
         <v>77</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A402" s="2">
+      <c r="A402">
         <v>6893</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402">
         <v>6</v>
       </c>
-      <c r="C402" s="3">
+      <c r="C402">
         <v>31</v>
       </c>
-      <c r="D402" s="3">
+      <c r="D402">
         <v>64</v>
       </c>
-      <c r="E402" s="3">
+      <c r="E402">
         <v>68</v>
       </c>
-      <c r="F402" s="3">
+      <c r="F402">
         <v>72</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A403" s="2">
+      <c r="A403">
         <v>6894</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403">
         <v>22</v>
       </c>
-      <c r="C403" s="3">
+      <c r="C403">
         <v>24</v>
       </c>
-      <c r="D403" s="3">
+      <c r="D403">
         <v>33</v>
       </c>
-      <c r="E403" s="3">
+      <c r="E403">
         <v>44</v>
       </c>
-      <c r="F403" s="3">
+      <c r="F403">
         <v>69</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A404" s="2">
+      <c r="A404">
         <v>6895</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404">
         <v>15</v>
       </c>
-      <c r="C404" s="3">
+      <c r="C404">
         <v>38</v>
       </c>
-      <c r="D404" s="3">
+      <c r="D404">
         <v>64</v>
       </c>
-      <c r="E404" s="3">
+      <c r="E404">
         <v>67</v>
       </c>
-      <c r="F404" s="3">
+      <c r="F404">
         <v>73</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A405" s="2">
+      <c r="A405">
         <v>6896</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405">
         <v>3</v>
       </c>
-      <c r="C405" s="3">
+      <c r="C405">
         <v>23</v>
       </c>
-      <c r="D405" s="3">
+      <c r="D405">
         <v>64</v>
       </c>
-      <c r="E405" s="3">
+      <c r="E405">
         <v>66</v>
       </c>
-      <c r="F405" s="3">
+      <c r="F405">
         <v>79</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A406" s="2">
+      <c r="A406">
         <v>6897</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406">
         <v>3</v>
       </c>
-      <c r="C406" s="3">
+      <c r="C406">
         <v>19</v>
       </c>
-      <c r="D406" s="3">
+      <c r="D406">
         <v>35</v>
       </c>
-      <c r="E406" s="3">
+      <c r="E406">
         <v>75</v>
       </c>
-      <c r="F406" s="3">
+      <c r="F406">
         <v>79</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A407" s="2">
+      <c r="A407">
         <v>6898</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407">
         <v>13</v>
       </c>
-      <c r="C407" s="3">
+      <c r="C407">
         <v>32</v>
       </c>
-      <c r="D407" s="3">
+      <c r="D407">
         <v>63</v>
       </c>
-      <c r="E407" s="3">
+      <c r="E407">
         <v>65</v>
       </c>
-      <c r="F407" s="3">
+      <c r="F407">
         <v>76</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A408" s="2">
+      <c r="A408">
         <v>6899</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408">
         <v>17</v>
       </c>
-      <c r="C408" s="3">
+      <c r="C408">
         <v>42</v>
       </c>
-      <c r="D408" s="3">
+      <c r="D408">
         <v>50</v>
       </c>
-      <c r="E408" s="3">
+      <c r="E408">
         <v>56</v>
       </c>
-      <c r="F408" s="3">
+      <c r="F408">
         <v>76</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A409" s="2">
+      <c r="A409">
         <v>6900</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409">
         <v>10</v>
       </c>
-      <c r="C409" s="3">
+      <c r="C409">
         <v>33</v>
       </c>
-      <c r="D409" s="3">
+      <c r="D409">
         <v>34</v>
       </c>
-      <c r="E409" s="3">
+      <c r="E409">
         <v>36</v>
       </c>
-      <c r="F409" s="3">
+      <c r="F409">
         <v>58</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A410" s="2">
+      <c r="A410">
         <v>6901</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410">
         <v>6</v>
       </c>
-      <c r="C410" s="3">
+      <c r="C410">
         <v>42</v>
       </c>
-      <c r="D410" s="3">
+      <c r="D410">
         <v>45</v>
       </c>
-      <c r="E410" s="3">
+      <c r="E410">
         <v>57</v>
       </c>
-      <c r="F410" s="3">
+      <c r="F410">
         <v>78</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A411" s="2">
+      <c r="A411">
         <v>6902</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411">
         <v>8</v>
       </c>
-      <c r="C411" s="3">
+      <c r="C411">
         <v>24</v>
       </c>
-      <c r="D411" s="3">
+      <c r="D411">
         <v>44</v>
       </c>
-      <c r="E411" s="3">
+      <c r="E411">
         <v>57</v>
       </c>
-      <c r="F411" s="3">
+      <c r="F411">
         <v>65</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A412">
+        <v>6903</v>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+      <c r="C412">
+        <v>45</v>
+      </c>
+      <c r="D412">
+        <v>54</v>
+      </c>
+      <c r="E412">
+        <v>65</v>
+      </c>
+      <c r="F412">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A413">
+        <v>6904</v>
+      </c>
+      <c r="B413">
+        <v>9</v>
+      </c>
+      <c r="C413">
+        <v>14</v>
+      </c>
+      <c r="D413">
+        <v>23</v>
+      </c>
+      <c r="E413">
+        <v>42</v>
+      </c>
+      <c r="F413">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A414">
+        <v>6905</v>
+      </c>
+      <c r="B414">
+        <v>3</v>
+      </c>
+      <c r="C414">
+        <v>18</v>
+      </c>
+      <c r="D414">
+        <v>24</v>
+      </c>
+      <c r="E414">
+        <v>60</v>
+      </c>
+      <c r="F414">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8668,15 +8726,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8684,6 +8733,15 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8855,20 +8913,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ACC938-2C4B-47B3-80ED-1AFF8FD8B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D075E44-4574-4C05-B1C0-E9667F4FABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58560" yWindow="1395" windowWidth="19665" windowHeight="12510" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="74310" yWindow="330" windowWidth="20130" windowHeight="11310" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F414"/>
+  <dimension ref="A1:F416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="G412" sqref="G412"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="G417" sqref="G417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8720,12 +8720,61 @@
         <v>78</v>
       </c>
     </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A415">
+        <v>6906</v>
+      </c>
+      <c r="B415">
+        <v>5</v>
+      </c>
+      <c r="C415">
+        <v>32</v>
+      </c>
+      <c r="D415">
+        <v>51</v>
+      </c>
+      <c r="E415">
+        <v>55</v>
+      </c>
+      <c r="F415">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A416">
+        <v>6907</v>
+      </c>
+      <c r="B416">
+        <v>23</v>
+      </c>
+      <c r="C416">
+        <v>41</v>
+      </c>
+      <c r="D416">
+        <v>46</v>
+      </c>
+      <c r="E416">
+        <v>58</v>
+      </c>
+      <c r="F416">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8733,15 +8782,6 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8913,20 +8953,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D075E44-4574-4C05-B1C0-E9667F4FABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CEE0E4-389B-4EF1-A56B-905B0E9E27F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74310" yWindow="330" windowWidth="20130" windowHeight="11310" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57360" yWindow="225" windowWidth="19740" windowHeight="16020" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -103,11 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F416"/>
+  <dimension ref="A1:F435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="G417" sqref="G417"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417:F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8760,21 +8762,392 @@
         <v>66</v>
       </c>
     </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A417" s="2">
+        <v>6908</v>
+      </c>
+      <c r="B417" s="3">
+        <v>1</v>
+      </c>
+      <c r="C417" s="3">
+        <v>10</v>
+      </c>
+      <c r="D417" s="3">
+        <v>42</v>
+      </c>
+      <c r="E417" s="3">
+        <v>58</v>
+      </c>
+      <c r="F417" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A418" s="2">
+        <v>6909</v>
+      </c>
+      <c r="B418" s="3">
+        <v>9</v>
+      </c>
+      <c r="C418" s="3">
+        <v>25</v>
+      </c>
+      <c r="D418" s="3">
+        <v>57</v>
+      </c>
+      <c r="E418" s="3">
+        <v>63</v>
+      </c>
+      <c r="F418" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A419" s="2">
+        <v>6910</v>
+      </c>
+      <c r="B419" s="3">
+        <v>2</v>
+      </c>
+      <c r="C419" s="3">
+        <v>18</v>
+      </c>
+      <c r="D419" s="3">
+        <v>20</v>
+      </c>
+      <c r="E419" s="3">
+        <v>49</v>
+      </c>
+      <c r="F419" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A420" s="2">
+        <v>6911</v>
+      </c>
+      <c r="B420" s="3">
+        <v>3</v>
+      </c>
+      <c r="C420" s="3">
+        <v>51</v>
+      </c>
+      <c r="D420" s="3">
+        <v>56</v>
+      </c>
+      <c r="E420" s="3">
+        <v>59</v>
+      </c>
+      <c r="F420" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A421" s="2">
+        <v>6912</v>
+      </c>
+      <c r="B421" s="3">
+        <v>4</v>
+      </c>
+      <c r="C421" s="3">
+        <v>43</v>
+      </c>
+      <c r="D421" s="3">
+        <v>44</v>
+      </c>
+      <c r="E421" s="3">
+        <v>58</v>
+      </c>
+      <c r="F421" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A422" s="2">
+        <v>6913</v>
+      </c>
+      <c r="B422" s="3">
+        <v>25</v>
+      </c>
+      <c r="C422" s="3">
+        <v>31</v>
+      </c>
+      <c r="D422" s="3">
+        <v>38</v>
+      </c>
+      <c r="E422" s="3">
+        <v>42</v>
+      </c>
+      <c r="F422" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A423" s="2">
+        <v>6914</v>
+      </c>
+      <c r="B423" s="3">
+        <v>25</v>
+      </c>
+      <c r="C423" s="3">
+        <v>41</v>
+      </c>
+      <c r="D423" s="3">
+        <v>48</v>
+      </c>
+      <c r="E423" s="3">
+        <v>49</v>
+      </c>
+      <c r="F423" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A424" s="2">
+        <v>6915</v>
+      </c>
+      <c r="B424" s="3">
+        <v>5</v>
+      </c>
+      <c r="C424" s="3">
+        <v>19</v>
+      </c>
+      <c r="D424" s="3">
+        <v>21</v>
+      </c>
+      <c r="E424" s="3">
+        <v>51</v>
+      </c>
+      <c r="F424" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A425" s="2">
+        <v>6916</v>
+      </c>
+      <c r="B425" s="3">
+        <v>8</v>
+      </c>
+      <c r="C425" s="3">
+        <v>54</v>
+      </c>
+      <c r="D425" s="3">
+        <v>58</v>
+      </c>
+      <c r="E425" s="3">
+        <v>72</v>
+      </c>
+      <c r="F425" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A426" s="2">
+        <v>6917</v>
+      </c>
+      <c r="B426" s="3">
+        <v>11</v>
+      </c>
+      <c r="C426" s="3">
+        <v>15</v>
+      </c>
+      <c r="D426" s="3">
+        <v>29</v>
+      </c>
+      <c r="E426" s="3">
+        <v>48</v>
+      </c>
+      <c r="F426" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A427" s="2">
+        <v>6918</v>
+      </c>
+      <c r="B427" s="3">
+        <v>9</v>
+      </c>
+      <c r="C427" s="3">
+        <v>21</v>
+      </c>
+      <c r="D427" s="3">
+        <v>24</v>
+      </c>
+      <c r="E427" s="3">
+        <v>63</v>
+      </c>
+      <c r="F427" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A428" s="2">
+        <v>6919</v>
+      </c>
+      <c r="B428" s="3">
+        <v>4</v>
+      </c>
+      <c r="C428" s="3">
+        <v>6</v>
+      </c>
+      <c r="D428" s="3">
+        <v>9</v>
+      </c>
+      <c r="E428" s="3">
+        <v>26</v>
+      </c>
+      <c r="F428" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A429" s="2">
+        <v>6920</v>
+      </c>
+      <c r="B429" s="3">
+        <v>4</v>
+      </c>
+      <c r="C429" s="3">
+        <v>28</v>
+      </c>
+      <c r="D429" s="3">
+        <v>34</v>
+      </c>
+      <c r="E429" s="3">
+        <v>42</v>
+      </c>
+      <c r="F429" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A430" s="2">
+        <v>6921</v>
+      </c>
+      <c r="B430" s="3">
+        <v>26</v>
+      </c>
+      <c r="C430" s="3">
+        <v>50</v>
+      </c>
+      <c r="D430" s="3">
+        <v>69</v>
+      </c>
+      <c r="E430" s="3">
+        <v>74</v>
+      </c>
+      <c r="F430" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A431" s="2">
+        <v>6922</v>
+      </c>
+      <c r="B431" s="3">
+        <v>16</v>
+      </c>
+      <c r="C431" s="3">
+        <v>26</v>
+      </c>
+      <c r="D431" s="3">
+        <v>36</v>
+      </c>
+      <c r="E431" s="3">
+        <v>51</v>
+      </c>
+      <c r="F431" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A432" s="2">
+        <v>6923</v>
+      </c>
+      <c r="B432" s="3">
+        <v>18</v>
+      </c>
+      <c r="C432" s="3">
+        <v>34</v>
+      </c>
+      <c r="D432" s="3">
+        <v>41</v>
+      </c>
+      <c r="E432" s="3">
+        <v>57</v>
+      </c>
+      <c r="F432" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A433" s="2">
+        <v>6924</v>
+      </c>
+      <c r="B433" s="3">
+        <v>4</v>
+      </c>
+      <c r="C433" s="3">
+        <v>13</v>
+      </c>
+      <c r="D433" s="3">
+        <v>49</v>
+      </c>
+      <c r="E433" s="3">
+        <v>52</v>
+      </c>
+      <c r="F433" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A434" s="2">
+        <v>6925</v>
+      </c>
+      <c r="B434" s="3">
+        <v>9</v>
+      </c>
+      <c r="C434" s="3">
+        <v>25</v>
+      </c>
+      <c r="D434" s="3">
+        <v>44</v>
+      </c>
+      <c r="E434" s="3">
+        <v>46</v>
+      </c>
+      <c r="F434" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A435" s="2">
+        <v>6926</v>
+      </c>
+      <c r="B435" s="3">
+        <v>14</v>
+      </c>
+      <c r="C435" s="3">
+        <v>29</v>
+      </c>
+      <c r="D435" s="3">
+        <v>40</v>
+      </c>
+      <c r="E435" s="3">
+        <v>79</v>
+      </c>
+      <c r="F435" s="3">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8782,6 +9155,15 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8953,20 +9335,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CEE0E4-389B-4EF1-A56B-905B0E9E27F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997EA48-78B4-428C-8B3C-77D768ADEAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57360" yWindow="225" windowWidth="19740" windowHeight="16020" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58845" yWindow="615" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F435"/>
+  <dimension ref="A1:F448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417:F435"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="B436" sqref="B436:F448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8763,383 +8763,643 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A417" s="2">
+      <c r="A417">
         <v>6908</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417">
         <v>1</v>
       </c>
-      <c r="C417" s="3">
+      <c r="C417">
         <v>10</v>
       </c>
-      <c r="D417" s="3">
+      <c r="D417">
         <v>42</v>
       </c>
-      <c r="E417" s="3">
+      <c r="E417">
         <v>58</v>
       </c>
-      <c r="F417" s="3">
+      <c r="F417">
         <v>72</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A418" s="2">
+      <c r="A418">
         <v>6909</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418">
         <v>9</v>
       </c>
-      <c r="C418" s="3">
+      <c r="C418">
         <v>25</v>
       </c>
-      <c r="D418" s="3">
+      <c r="D418">
         <v>57</v>
       </c>
-      <c r="E418" s="3">
+      <c r="E418">
         <v>63</v>
       </c>
-      <c r="F418" s="3">
+      <c r="F418">
         <v>75</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A419" s="2">
+      <c r="A419">
         <v>6910</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419">
         <v>2</v>
       </c>
-      <c r="C419" s="3">
+      <c r="C419">
         <v>18</v>
       </c>
-      <c r="D419" s="3">
+      <c r="D419">
         <v>20</v>
       </c>
-      <c r="E419" s="3">
+      <c r="E419">
         <v>49</v>
       </c>
-      <c r="F419" s="3">
+      <c r="F419">
         <v>68</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A420" s="2">
+      <c r="A420">
         <v>6911</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420">
         <v>3</v>
       </c>
-      <c r="C420" s="3">
+      <c r="C420">
         <v>51</v>
       </c>
-      <c r="D420" s="3">
+      <c r="D420">
         <v>56</v>
       </c>
-      <c r="E420" s="3">
+      <c r="E420">
         <v>59</v>
       </c>
-      <c r="F420" s="3">
+      <c r="F420">
         <v>72</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A421" s="2">
+      <c r="A421">
         <v>6912</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421">
         <v>4</v>
       </c>
-      <c r="C421" s="3">
+      <c r="C421">
         <v>43</v>
       </c>
-      <c r="D421" s="3">
+      <c r="D421">
         <v>44</v>
       </c>
-      <c r="E421" s="3">
+      <c r="E421">
         <v>58</v>
       </c>
-      <c r="F421" s="3">
+      <c r="F421">
         <v>62</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A422" s="2">
+      <c r="A422">
         <v>6913</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422">
         <v>25</v>
       </c>
-      <c r="C422" s="3">
+      <c r="C422">
         <v>31</v>
       </c>
-      <c r="D422" s="3">
+      <c r="D422">
         <v>38</v>
       </c>
-      <c r="E422" s="3">
+      <c r="E422">
         <v>42</v>
       </c>
-      <c r="F422" s="3">
+      <c r="F422">
         <v>58</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A423" s="2">
+      <c r="A423">
         <v>6914</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423">
         <v>25</v>
       </c>
-      <c r="C423" s="3">
+      <c r="C423">
         <v>41</v>
       </c>
-      <c r="D423" s="3">
+      <c r="D423">
         <v>48</v>
       </c>
-      <c r="E423" s="3">
+      <c r="E423">
         <v>49</v>
       </c>
-      <c r="F423" s="3">
+      <c r="F423">
         <v>66</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A424" s="2">
+      <c r="A424">
         <v>6915</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424">
         <v>5</v>
       </c>
-      <c r="C424" s="3">
+      <c r="C424">
         <v>19</v>
       </c>
-      <c r="D424" s="3">
+      <c r="D424">
         <v>21</v>
       </c>
-      <c r="E424" s="3">
+      <c r="E424">
         <v>51</v>
       </c>
-      <c r="F424" s="3">
+      <c r="F424">
         <v>66</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A425" s="2">
+      <c r="A425">
         <v>6916</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425">
         <v>8</v>
       </c>
-      <c r="C425" s="3">
+      <c r="C425">
         <v>54</v>
       </c>
-      <c r="D425" s="3">
+      <c r="D425">
         <v>58</v>
       </c>
-      <c r="E425" s="3">
+      <c r="E425">
         <v>72</v>
       </c>
-      <c r="F425" s="3">
+      <c r="F425">
         <v>76</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A426" s="2">
+      <c r="A426">
         <v>6917</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426">
         <v>11</v>
       </c>
-      <c r="C426" s="3">
+      <c r="C426">
         <v>15</v>
       </c>
-      <c r="D426" s="3">
+      <c r="D426">
         <v>29</v>
       </c>
-      <c r="E426" s="3">
+      <c r="E426">
         <v>48</v>
       </c>
-      <c r="F426" s="3">
+      <c r="F426">
         <v>57</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A427" s="2">
+      <c r="A427">
         <v>6918</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427">
         <v>9</v>
       </c>
-      <c r="C427" s="3">
+      <c r="C427">
         <v>21</v>
       </c>
-      <c r="D427" s="3">
+      <c r="D427">
         <v>24</v>
       </c>
-      <c r="E427" s="3">
+      <c r="E427">
         <v>63</v>
       </c>
-      <c r="F427" s="3">
+      <c r="F427">
         <v>69</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A428" s="2">
+      <c r="A428">
         <v>6919</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428">
         <v>4</v>
       </c>
-      <c r="C428" s="3">
+      <c r="C428">
         <v>6</v>
       </c>
-      <c r="D428" s="3">
+      <c r="D428">
         <v>9</v>
       </c>
-      <c r="E428" s="3">
+      <c r="E428">
         <v>26</v>
       </c>
-      <c r="F428" s="3">
+      <c r="F428">
         <v>64</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A429" s="2">
+      <c r="A429">
         <v>6920</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429">
         <v>4</v>
       </c>
-      <c r="C429" s="3">
+      <c r="C429">
         <v>28</v>
       </c>
-      <c r="D429" s="3">
+      <c r="D429">
         <v>34</v>
       </c>
-      <c r="E429" s="3">
+      <c r="E429">
         <v>42</v>
       </c>
-      <c r="F429" s="3">
+      <c r="F429">
         <v>47</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A430" s="2">
+      <c r="A430">
         <v>6921</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430">
         <v>26</v>
       </c>
-      <c r="C430" s="3">
+      <c r="C430">
         <v>50</v>
       </c>
-      <c r="D430" s="3">
+      <c r="D430">
         <v>69</v>
       </c>
-      <c r="E430" s="3">
+      <c r="E430">
         <v>74</v>
       </c>
-      <c r="F430" s="3">
+      <c r="F430">
         <v>77</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A431" s="2">
+      <c r="A431">
         <v>6922</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431">
         <v>16</v>
       </c>
-      <c r="C431" s="3">
+      <c r="C431">
         <v>26</v>
       </c>
-      <c r="D431" s="3">
+      <c r="D431">
         <v>36</v>
       </c>
-      <c r="E431" s="3">
+      <c r="E431">
         <v>51</v>
       </c>
-      <c r="F431" s="3">
+      <c r="F431">
         <v>56</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A432" s="2">
+      <c r="A432">
         <v>6923</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432">
         <v>18</v>
       </c>
-      <c r="C432" s="3">
+      <c r="C432">
         <v>34</v>
       </c>
-      <c r="D432" s="3">
+      <c r="D432">
         <v>41</v>
       </c>
-      <c r="E432" s="3">
+      <c r="E432">
         <v>57</v>
       </c>
-      <c r="F432" s="3">
+      <c r="F432">
         <v>63</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A433" s="2">
+      <c r="A433">
         <v>6924</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433">
         <v>4</v>
       </c>
-      <c r="C433" s="3">
+      <c r="C433">
         <v>13</v>
       </c>
-      <c r="D433" s="3">
+      <c r="D433">
         <v>49</v>
       </c>
-      <c r="E433" s="3">
+      <c r="E433">
         <v>52</v>
       </c>
-      <c r="F433" s="3">
+      <c r="F433">
         <v>66</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A434" s="2">
+      <c r="A434">
         <v>6925</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434">
         <v>9</v>
       </c>
-      <c r="C434" s="3">
+      <c r="C434">
         <v>25</v>
       </c>
-      <c r="D434" s="3">
+      <c r="D434">
         <v>44</v>
       </c>
-      <c r="E434" s="3">
+      <c r="E434">
         <v>46</v>
       </c>
-      <c r="F434" s="3">
+      <c r="F434">
         <v>62</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A435" s="2">
+      <c r="A435">
         <v>6926</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435">
         <v>14</v>
       </c>
-      <c r="C435" s="3">
+      <c r="C435">
         <v>29</v>
       </c>
-      <c r="D435" s="3">
+      <c r="D435">
         <v>40</v>
       </c>
-      <c r="E435" s="3">
+      <c r="E435">
         <v>79</v>
       </c>
-      <c r="F435" s="3">
+      <c r="F435">
         <v>80</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A436" s="2">
+        <v>6927</v>
+      </c>
+      <c r="B436" s="3">
+        <v>3</v>
+      </c>
+      <c r="C436" s="3">
+        <v>20</v>
+      </c>
+      <c r="D436" s="3">
+        <v>49</v>
+      </c>
+      <c r="E436" s="3">
+        <v>57</v>
+      </c>
+      <c r="F436" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A437" s="2">
+        <v>6928</v>
+      </c>
+      <c r="B437" s="3">
+        <v>33</v>
+      </c>
+      <c r="C437" s="3">
+        <v>44</v>
+      </c>
+      <c r="D437" s="3">
+        <v>56</v>
+      </c>
+      <c r="E437" s="3">
+        <v>66</v>
+      </c>
+      <c r="F437" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A438" s="2">
+        <v>6929</v>
+      </c>
+      <c r="B438" s="3">
+        <v>8</v>
+      </c>
+      <c r="C438" s="3">
+        <v>13</v>
+      </c>
+      <c r="D438" s="3">
+        <v>14</v>
+      </c>
+      <c r="E438" s="3">
+        <v>53</v>
+      </c>
+      <c r="F438" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A439" s="2">
+        <v>6930</v>
+      </c>
+      <c r="B439" s="3">
+        <v>5</v>
+      </c>
+      <c r="C439" s="3">
+        <v>16</v>
+      </c>
+      <c r="D439" s="3">
+        <v>22</v>
+      </c>
+      <c r="E439" s="3">
+        <v>65</v>
+      </c>
+      <c r="F439" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A440" s="2">
+        <v>6931</v>
+      </c>
+      <c r="B440" s="3">
+        <v>48</v>
+      </c>
+      <c r="C440" s="3">
+        <v>69</v>
+      </c>
+      <c r="D440" s="3">
+        <v>73</v>
+      </c>
+      <c r="E440" s="3">
+        <v>77</v>
+      </c>
+      <c r="F440" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A441" s="2">
+        <v>6932</v>
+      </c>
+      <c r="B441" s="3">
+        <v>28</v>
+      </c>
+      <c r="C441" s="3">
+        <v>33</v>
+      </c>
+      <c r="D441" s="3">
+        <v>65</v>
+      </c>
+      <c r="E441" s="3">
+        <v>71</v>
+      </c>
+      <c r="F441" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A442" s="2">
+        <v>6933</v>
+      </c>
+      <c r="B442" s="3">
+        <v>51</v>
+      </c>
+      <c r="C442" s="3">
+        <v>55</v>
+      </c>
+      <c r="D442" s="3">
+        <v>62</v>
+      </c>
+      <c r="E442" s="3">
+        <v>64</v>
+      </c>
+      <c r="F442" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A443" s="2">
+        <v>6934</v>
+      </c>
+      <c r="B443" s="3">
+        <v>5</v>
+      </c>
+      <c r="C443" s="3">
+        <v>15</v>
+      </c>
+      <c r="D443" s="3">
+        <v>25</v>
+      </c>
+      <c r="E443" s="3">
+        <v>40</v>
+      </c>
+      <c r="F443" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A444" s="2">
+        <v>6935</v>
+      </c>
+      <c r="B444" s="3">
+        <v>5</v>
+      </c>
+      <c r="C444" s="3">
+        <v>7</v>
+      </c>
+      <c r="D444" s="3">
+        <v>33</v>
+      </c>
+      <c r="E444" s="3">
+        <v>58</v>
+      </c>
+      <c r="F444" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A445" s="2">
+        <v>6936</v>
+      </c>
+      <c r="B445" s="3">
+        <v>8</v>
+      </c>
+      <c r="C445" s="3">
+        <v>15</v>
+      </c>
+      <c r="D445" s="3">
+        <v>21</v>
+      </c>
+      <c r="E445" s="3">
+        <v>39</v>
+      </c>
+      <c r="F445" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A446" s="2">
+        <v>6937</v>
+      </c>
+      <c r="B446" s="3">
+        <v>16</v>
+      </c>
+      <c r="C446" s="3">
+        <v>17</v>
+      </c>
+      <c r="D446" s="3">
+        <v>46</v>
+      </c>
+      <c r="E446" s="3">
+        <v>56</v>
+      </c>
+      <c r="F446" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A447" s="2">
+        <v>6938</v>
+      </c>
+      <c r="B447" s="3">
+        <v>3</v>
+      </c>
+      <c r="C447" s="3">
+        <v>4</v>
+      </c>
+      <c r="D447" s="3">
+        <v>21</v>
+      </c>
+      <c r="E447" s="3">
+        <v>32</v>
+      </c>
+      <c r="F447" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A448" s="2">
+        <v>6939</v>
+      </c>
+      <c r="B448" s="3">
+        <v>10</v>
+      </c>
+      <c r="C448" s="3">
+        <v>26</v>
+      </c>
+      <c r="D448" s="3">
+        <v>27</v>
+      </c>
+      <c r="E448" s="3">
+        <v>55</v>
+      </c>
+      <c r="F448" s="3">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -9158,15 +9418,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9334,6 +9585,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
   <ds:schemaRefs>
@@ -9346,14 +9606,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0BA4B3-539F-4533-9D8B-E25FB604EF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9371,4 +9623,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Quina_edt.xlsx
+++ b/LoteriasExcel/Quina_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997EA48-78B4-428C-8B3C-77D768ADEAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14E5157-4502-4B32-924A-7317CA476A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58845" yWindow="615" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="78225" yWindow="1410" windowWidth="17280" windowHeight="18765" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="QUINA" sheetId="5" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F42D8-1A18-4874-B84B-B82C9356D3EB}">
-  <dimension ref="A1:F448"/>
+  <dimension ref="A1:F460"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436:F448"/>
+      <selection activeCell="C449" activeCellId="1" sqref="B450:F460 C449:F449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9143,263 +9143,503 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A436" s="2">
+      <c r="A436">
         <v>6927</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436">
         <v>3</v>
       </c>
-      <c r="C436" s="3">
+      <c r="C436">
         <v>20</v>
       </c>
-      <c r="D436" s="3">
+      <c r="D436">
         <v>49</v>
       </c>
-      <c r="E436" s="3">
+      <c r="E436">
         <v>57</v>
       </c>
-      <c r="F436" s="3">
+      <c r="F436">
         <v>69</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A437" s="2">
+      <c r="A437">
         <v>6928</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437">
         <v>33</v>
       </c>
-      <c r="C437" s="3">
+      <c r="C437">
         <v>44</v>
       </c>
-      <c r="D437" s="3">
+      <c r="D437">
         <v>56</v>
       </c>
-      <c r="E437" s="3">
+      <c r="E437">
         <v>66</v>
       </c>
-      <c r="F437" s="3">
+      <c r="F437">
         <v>72</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A438" s="2">
+      <c r="A438">
         <v>6929</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438">
         <v>8</v>
       </c>
-      <c r="C438" s="3">
+      <c r="C438">
         <v>13</v>
       </c>
-      <c r="D438" s="3">
+      <c r="D438">
         <v>14</v>
       </c>
-      <c r="E438" s="3">
+      <c r="E438">
         <v>53</v>
       </c>
-      <c r="F438" s="3">
+      <c r="F438">
         <v>54</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A439" s="2">
+      <c r="A439">
         <v>6930</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439">
         <v>5</v>
       </c>
-      <c r="C439" s="3">
+      <c r="C439">
         <v>16</v>
       </c>
-      <c r="D439" s="3">
+      <c r="D439">
         <v>22</v>
       </c>
-      <c r="E439" s="3">
+      <c r="E439">
         <v>65</v>
       </c>
-      <c r="F439" s="3">
+      <c r="F439">
         <v>80</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A440" s="2">
+      <c r="A440">
         <v>6931</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440">
         <v>48</v>
       </c>
-      <c r="C440" s="3">
+      <c r="C440">
         <v>69</v>
       </c>
-      <c r="D440" s="3">
+      <c r="D440">
         <v>73</v>
       </c>
-      <c r="E440" s="3">
+      <c r="E440">
         <v>77</v>
       </c>
-      <c r="F440" s="3">
+      <c r="F440">
         <v>79</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A441" s="2">
+      <c r="A441">
         <v>6932</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441">
         <v>28</v>
       </c>
-      <c r="C441" s="3">
+      <c r="C441">
         <v>33</v>
       </c>
-      <c r="D441" s="3">
+      <c r="D441">
         <v>65</v>
       </c>
-      <c r="E441" s="3">
+      <c r="E441">
         <v>71</v>
       </c>
-      <c r="F441" s="3">
+      <c r="F441">
         <v>76</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A442" s="2">
+      <c r="A442">
         <v>6933</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442">
         <v>51</v>
       </c>
-      <c r="C442" s="3">
+      <c r="C442">
         <v>55</v>
       </c>
-      <c r="D442" s="3">
+      <c r="D442">
         <v>62</v>
       </c>
-      <c r="E442" s="3">
+      <c r="E442">
         <v>64</v>
       </c>
-      <c r="F442" s="3">
+      <c r="F442">
         <v>69</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A443" s="2">
+      <c r="A443">
         <v>6934</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443">
         <v>5</v>
       </c>
-      <c r="C443" s="3">
+      <c r="C443">
         <v>15</v>
       </c>
-      <c r="D443" s="3">
+      <c r="D443">
         <v>25</v>
       </c>
-      <c r="E443" s="3">
+      <c r="E443">
         <v>40</v>
       </c>
-      <c r="F443" s="3">
+      <c r="F443">
         <v>67</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A444" s="2">
+      <c r="A444">
         <v>6935</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444">
         <v>5</v>
       </c>
-      <c r="C444" s="3">
+      <c r="C444">
         <v>7</v>
       </c>
-      <c r="D444" s="3">
+      <c r="D444">
         <v>33</v>
       </c>
-      <c r="E444" s="3">
+      <c r="E444">
         <v>58</v>
       </c>
-      <c r="F444" s="3">
+      <c r="F444">
         <v>64</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A445" s="2">
+      <c r="A445">
         <v>6936</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445">
         <v>8</v>
       </c>
-      <c r="C445" s="3">
+      <c r="C445">
         <v>15</v>
       </c>
-      <c r="D445" s="3">
+      <c r="D445">
         <v>21</v>
       </c>
-      <c r="E445" s="3">
+      <c r="E445">
         <v>39</v>
       </c>
-      <c r="F445" s="3">
+      <c r="F445">
         <v>48</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A446" s="2">
+      <c r="A446">
         <v>6937</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446">
         <v>16</v>
       </c>
-      <c r="C446" s="3">
+      <c r="C446">
         <v>17</v>
       </c>
-      <c r="D446" s="3">
+      <c r="D446">
         <v>46</v>
       </c>
-      <c r="E446" s="3">
+      <c r="E446">
         <v>56</v>
       </c>
-      <c r="F446" s="3">
+      <c r="F446">
         <v>70</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A447" s="2">
+      <c r="A447">
         <v>6938</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447">
         <v>3</v>
       </c>
-      <c r="C447" s="3">
+      <c r="C447">
         <v>4</v>
       </c>
-      <c r="D447" s="3">
+      <c r="D447">
         <v>21</v>
       </c>
-      <c r="E447" s="3">
+      <c r="E447">
         <v>32</v>
       </c>
-      <c r="F447" s="3">
+      <c r="F447">
         <v>52</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A448" s="2">
+      <c r="A448">
         <v>6939</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448">
         <v>10</v>
       </c>
-      <c r="C448" s="3">
+      <c r="C448">
         <v>26</v>
       </c>
-      <c r="D448" s="3">
+      <c r="D448">
         <v>27</v>
       </c>
-      <c r="E448" s="3">
+      <c r="E448">
         <v>55</v>
       </c>
-      <c r="F448" s="3">
+      <c r="F448">
         <v>73</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A449" s="2">
+        <v>6940</v>
+      </c>
+      <c r="B449" s="3">
+        <v>24</v>
+      </c>
+      <c r="C449" s="3">
+        <v>53</v>
+      </c>
+      <c r="D449" s="3">
+        <v>66</v>
+      </c>
+      <c r="E449" s="3">
+        <v>73</v>
+      </c>
+      <c r="F449" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A450" s="2">
+        <v>6941</v>
+      </c>
+      <c r="B450" s="3">
+        <v>12</v>
+      </c>
+      <c r="C450" s="3">
+        <v>32</v>
+      </c>
+      <c r="D450" s="3">
+        <v>34</v>
+      </c>
+      <c r="E450" s="3">
+        <v>57</v>
+      </c>
+      <c r="F450" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A451" s="2">
+        <v>6942</v>
+      </c>
+      <c r="B451" s="3">
+        <v>16</v>
+      </c>
+      <c r="C451" s="3">
+        <v>33</v>
+      </c>
+      <c r="D451" s="3">
+        <v>34</v>
+      </c>
+      <c r="E451" s="3">
+        <v>50</v>
+      </c>
+      <c r="F451" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A452" s="2">
+        <v>6943</v>
+      </c>
+      <c r="B452" s="3">
+        <v>22</v>
+      </c>
+      <c r="C452" s="3">
+        <v>23</v>
+      </c>
+      <c r="D452" s="3">
+        <v>35</v>
+      </c>
+      <c r="E452" s="3">
+        <v>40</v>
+      </c>
+      <c r="F452" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A453" s="2">
+        <v>6944</v>
+      </c>
+      <c r="B453" s="3">
+        <v>2</v>
+      </c>
+      <c r="C453" s="3">
+        <v>8</v>
+      </c>
+      <c r="D453" s="3">
+        <v>30</v>
+      </c>
+      <c r="E453" s="3">
+        <v>56</v>
+      </c>
+      <c r="F453" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A454" s="2">
+        <v>6945</v>
+      </c>
+      <c r="B454" s="3">
+        <v>33</v>
+      </c>
+      <c r="C454" s="3">
+        <v>61</v>
+      </c>
+      <c r="D454" s="3">
+        <v>66</v>
+      </c>
+      <c r="E454" s="3">
+        <v>68</v>
+      </c>
+      <c r="F454" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A455" s="2">
+        <v>6946</v>
+      </c>
+      <c r="B455" s="3">
+        <v>1</v>
+      </c>
+      <c r="C455" s="3">
+        <v>48</v>
+      </c>
+      <c r="D455" s="3">
+        <v>53</v>
+      </c>
+      <c r="E455" s="3">
+        <v>75</v>
+      </c>
+      <c r="F455" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A456" s="2">
+        <v>6947</v>
+      </c>
+      <c r="B456" s="3">
+        <v>6</v>
+      </c>
+      <c r="C456" s="3">
+        <v>30</v>
+      </c>
+      <c r="D456" s="3">
+        <v>52</v>
+      </c>
+      <c r="E456" s="3">
+        <v>60</v>
+      </c>
+      <c r="F456" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A457" s="2">
+        <v>6948</v>
+      </c>
+      <c r="B457" s="3">
+        <v>3</v>
+      </c>
+      <c r="C457" s="3">
+        <v>21</v>
+      </c>
+      <c r="D457" s="3">
+        <v>32</v>
+      </c>
+      <c r="E457" s="3">
+        <v>46</v>
+      </c>
+      <c r="F457" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A458" s="2">
+        <v>6949</v>
+      </c>
+      <c r="B458" s="3">
+        <v>21</v>
+      </c>
+      <c r="C458" s="3">
+        <v>51</v>
+      </c>
+      <c r="D458" s="3">
+        <v>60</v>
+      </c>
+      <c r="E458" s="3">
+        <v>67</v>
+      </c>
+      <c r="F458" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A459" s="2">
+        <v>6950</v>
+      </c>
+      <c r="B459" s="3">
+        <v>1</v>
+      </c>
+      <c r="C459" s="3">
+        <v>6</v>
+      </c>
+      <c r="D459" s="3">
+        <v>24</v>
+      </c>
+      <c r="E459" s="3">
+        <v>47</v>
+      </c>
+      <c r="F459" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A460" s="2">
+        <v>6951</v>
+      </c>
+      <c r="B460" s="3">
+        <v>1</v>
+      </c>
+      <c r="C460" s="3">
+        <v>10</v>
+      </c>
+      <c r="D460" s="3">
+        <v>20</v>
+      </c>
+      <c r="E460" s="3">
+        <v>44</v>
+      </c>
+      <c r="F460" s="3">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -9408,16 +9648,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9585,6 +9815,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-08-07T04:02:34+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9595,17 +9835,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0BA4B3-539F-4533-9D8B-E25FB604EF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9625,6 +9854,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78031753-5247-4ACF-B096-47D8D4EBED75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BD56D6-0BD8-43E2-A769-DC44C0D1A9D8}">
   <ds:schemaRefs>
